--- a/submission/638f2cc65681_TGS.xlsx
+++ b/submission/638f2cc65681_TGS.xlsx
@@ -13940,7 +13940,7 @@
         <v>6323.5</v>
       </c>
       <c r="B1695">
-        <v>162.8731384277344</v>
+        <v>163.9888458251953</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13948,7 +13948,7 @@
         <v>6324</v>
       </c>
       <c r="B1696">
-        <v>164.4752349853516</v>
+        <v>165.5909423828125</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13956,7 +13956,7 @@
         <v>6324.5</v>
       </c>
       <c r="B1697">
-        <v>164.6110076904297</v>
+        <v>165.7267150878906</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -13964,7 +13964,7 @@
         <v>6325</v>
       </c>
       <c r="B1698">
-        <v>164.4752349853516</v>
+        <v>165.5909423828125</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13972,7 +13972,7 @@
         <v>6325.5</v>
       </c>
       <c r="B1699">
-        <v>162.1383972167969</v>
+        <v>163.2541046142578</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13980,7 +13980,7 @@
         <v>6326</v>
       </c>
       <c r="B1700">
-        <v>162.1128387451172</v>
+        <v>165.5909423828125</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13988,7 +13988,7 @@
         <v>6326.5</v>
       </c>
       <c r="B1701">
-        <v>164.6912384033203</v>
+        <v>165.8069458007812</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13996,7 +13996,7 @@
         <v>6327</v>
       </c>
       <c r="B1702">
-        <v>163.0891418457031</v>
+        <v>164.2048492431641</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14004,7 +14004,7 @@
         <v>6327.5</v>
       </c>
       <c r="B1703">
-        <v>162.8731384277344</v>
+        <v>163.9888458251953</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -14012,7 +14012,7 @@
         <v>6328</v>
       </c>
       <c r="B1704">
-        <v>160.0594940185547</v>
+        <v>161.1752014160156</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14020,7 +14020,7 @@
         <v>6328.5</v>
       </c>
       <c r="B1705">
-        <v>157.0810699462891</v>
+        <v>161.1752014160156</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -14028,7 +14028,7 @@
         <v>6329</v>
       </c>
       <c r="B1706">
-        <v>160.5166778564453</v>
+        <v>161.6975860595703</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14036,7 +14036,7 @@
         <v>6329.5</v>
       </c>
       <c r="B1707">
-        <v>159.3235015869141</v>
+        <v>161.3420257568359</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14044,7 +14044,7 @@
         <v>6330</v>
       </c>
       <c r="B1708">
-        <v>160.1611175537109</v>
+        <v>161.3420257568359</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14052,7 +14052,7 @@
         <v>6330.5</v>
       </c>
       <c r="B1709">
-        <v>156.7246246337891</v>
+        <v>160.8187561035156</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14060,7 +14060,7 @@
         <v>6331</v>
       </c>
       <c r="B1710">
-        <v>159.4434661865234</v>
+        <v>161.1752014160156</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14068,7 +14068,7 @@
         <v>6331.5</v>
       </c>
       <c r="B1711">
-        <v>161.3514862060547</v>
+        <v>162.4671936035156</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14076,7 +14076,7 @@
         <v>6332</v>
       </c>
       <c r="B1712">
-        <v>162.6097564697266</v>
+        <v>164.2836151123047</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14084,7 +14084,7 @@
         <v>6332.5</v>
       </c>
       <c r="B1713">
-        <v>166.6362609863281</v>
+        <v>164.2414398193359</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14092,7 +14092,7 @@
         <v>6333</v>
       </c>
       <c r="B1714">
-        <v>157.6558380126953</v>
+        <v>155.8772735595703</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14100,7 +14100,7 @@
         <v>6333.5</v>
       </c>
       <c r="B1715">
-        <v>155.2788696289062</v>
+        <v>153.5084228515625</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14108,7 +14108,7 @@
         <v>6334</v>
       </c>
       <c r="B1716">
-        <v>154.9228057861328</v>
+        <v>153.7683868408203</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14116,7 +14116,7 @@
         <v>6334.5</v>
       </c>
       <c r="B1717">
-        <v>163.9835052490234</v>
+        <v>161.1884613037109</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14124,7 +14124,7 @@
         <v>6335</v>
       </c>
       <c r="B1718">
-        <v>159.0127868652344</v>
+        <v>160.2864227294922</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14132,7 +14132,7 @@
         <v>6335.5</v>
       </c>
       <c r="B1719">
-        <v>161.3386535644531</v>
+        <v>163.0125122070312</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14140,7 +14140,7 @@
         <v>6336</v>
       </c>
       <c r="B1720">
-        <v>165.3328552246094</v>
+        <v>162.7883605957031</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14148,7 +14148,7 @@
         <v>6336.5</v>
       </c>
       <c r="B1721">
-        <v>165.3930206298828</v>
+        <v>164.9007415771484</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14156,7 +14156,7 @@
         <v>6337</v>
       </c>
       <c r="B1722">
-        <v>160.2754364013672</v>
+        <v>162.8925323486328</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14164,7 +14164,7 @@
         <v>6337.5</v>
       </c>
       <c r="B1723">
-        <v>159.3059844970703</v>
+        <v>163.1207580566406</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14172,7 +14172,7 @@
         <v>6338</v>
       </c>
       <c r="B1724">
-        <v>159.040771484375</v>
+        <v>162.8555450439453</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14180,7 +14180,7 @@
         <v>6338.5</v>
       </c>
       <c r="B1725">
-        <v>159.040771484375</v>
+        <v>162.8555450439453</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14188,7 +14188,7 @@
         <v>6339</v>
       </c>
       <c r="B1726">
-        <v>159.8653717041016</v>
+        <v>163.6801452636719</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14196,7 +14196,7 @@
         <v>6339.5</v>
       </c>
       <c r="B1727">
-        <v>165.3455200195312</v>
+        <v>163.6379699707031</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14204,7 +14204,7 @@
         <v>6340</v>
       </c>
       <c r="B1728">
-        <v>161.4052581787109</v>
+        <v>160.8146820068359</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14212,7 +14212,7 @@
         <v>6340.5</v>
       </c>
       <c r="B1729">
-        <v>162.3751678466797</v>
+        <v>159.4221954345703</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14220,7 +14220,7 @@
         <v>6341</v>
       </c>
       <c r="B1730">
-        <v>162.6820831298828</v>
+        <v>164.3559417724609</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14228,7 +14228,7 @@
         <v>6341.5</v>
       </c>
       <c r="B1731">
-        <v>164.2841796875</v>
+        <v>165.9580383300781</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
@@ -14236,7 +14236,7 @@
         <v>6342</v>
       </c>
       <c r="B1732">
-        <v>164.2841796875</v>
+        <v>165.9580383300781</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14244,7 +14244,7 @@
         <v>6342.5</v>
       </c>
       <c r="B1733">
-        <v>164.6874237060547</v>
+        <v>165.8857116699219</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14252,7 +14252,7 @@
         <v>6343</v>
       </c>
       <c r="B1734">
-        <v>161.9499969482422</v>
+        <v>163.1482849121094</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14260,7 +14260,7 @@
         <v>6343.5</v>
       </c>
       <c r="B1735">
-        <v>161.4872589111328</v>
+        <v>162.6029663085938</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14268,7 +14268,7 @@
         <v>6344</v>
       </c>
       <c r="B1736">
-        <v>160.0634307861328</v>
+        <v>161.795166015625</v>
       </c>
     </row>
     <row r="1737" spans="1:2">
@@ -14276,7 +14276,7 @@
         <v>6344.5</v>
       </c>
       <c r="B1737">
-        <v>160.0634307861328</v>
+        <v>161.795166015625</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14284,7 +14284,7 @@
         <v>6345</v>
       </c>
       <c r="B1738">
-        <v>160.5261688232422</v>
+        <v>162.3404846191406</v>
       </c>
     </row>
   </sheetData>
